--- a/Q2/data.xlsx
+++ b/Q2/data.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28.125</v>
+        <v>28.515625</v>
       </c>
       <c r="C2" t="n">
         <v>16.55760863253109</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.3318319</v>
+        <v>33.89486959999999</v>
       </c>
       <c r="C3" t="n">
         <v>13.85714285714286</v>
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.7421875</v>
+        <v>31.46875</v>
       </c>
       <c r="C4" t="n">
         <v>13</v>
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>28.64124339</v>
+        <v>28.7213587575</v>
       </c>
       <c r="C5" t="n">
         <v>11</v>
@@ -635,16 +635,14 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.95555556</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>12.70547795686962</t>
-        </is>
+        <v>31.0777777775</v>
+      </c>
+      <c r="C6" t="n">
+        <v>12.28571428571429</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -674,7 +672,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35.8836345</v>
+        <v>36.12926652</v>
       </c>
       <c r="C7" t="n">
         <v>12.14285714285714</v>
@@ -711,7 +709,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.87406376</v>
+        <v>34.062253</v>
       </c>
       <c r="C8" t="n">
         <v>23.71428571428572</v>
@@ -748,7 +746,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>29.13631634</v>
+        <v>30.1248699275</v>
       </c>
       <c r="C9" t="n">
         <v>13</v>
@@ -785,7 +783,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.33333333</v>
+        <v>33.8888888875</v>
       </c>
       <c r="C10" t="n">
         <v>13.85714285714286</v>
@@ -822,7 +820,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>33.33333333</v>
+        <v>34.7777777775</v>
       </c>
       <c r="C11" t="n">
         <v>24.71428571428572</v>
@@ -859,7 +857,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>36.25047023</v>
+        <v>36.9344413675</v>
       </c>
       <c r="C12" t="n">
         <v>16.86207770300084</v>
@@ -896,7 +894,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>30.38501561</v>
+        <v>30.4890738825</v>
       </c>
       <c r="C13" t="n">
         <v>13.80783451818151</v>
@@ -933,16 +931,14 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>35.94414543</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>108.25060660522738</t>
-        </is>
+        <v>35.75595619</v>
+      </c>
+      <c r="C14" t="n">
+        <v>11.57142857142857</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -972,16 +968,14 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>35.05563176</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>18.416670106527523</t>
-        </is>
+        <v>35.627190975</v>
+      </c>
+      <c r="C15" t="n">
+        <v>17.3592005894201</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1011,7 +1005,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.11111111</v>
+        <v>31.233333335</v>
       </c>
       <c r="C16" t="n">
         <v>15.03660689475362</v>
@@ -1048,7 +1042,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>30.0432623</v>
+        <v>30.644127545</v>
       </c>
       <c r="C17" t="n">
         <v>12.71428571428571</v>
@@ -1085,7 +1079,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>28.28282828</v>
+        <v>28.46648301</v>
       </c>
       <c r="C18" t="n">
         <v>13.71428571428571</v>
@@ -1122,7 +1116,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28.13365651</v>
+        <v>28.1336565075</v>
       </c>
       <c r="C19" t="n">
         <v>13.28571428571429</v>
@@ -1159,7 +1153,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>28.3203125</v>
+        <v>29.345703125</v>
       </c>
       <c r="C20" t="n">
         <v>12.28571428571429</v>
@@ -1196,7 +1190,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>29.61580592</v>
+        <v>29.818653905</v>
       </c>
       <c r="C21" t="n">
         <v>12.28571428571429</v>
@@ -1233,7 +1227,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.93333333</v>
+        <v>35.54333333</v>
       </c>
       <c r="C22" t="n">
         <v>13.57142857142857</v>
@@ -1270,7 +1264,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>28.67766307</v>
+        <v>29.362033315</v>
       </c>
       <c r="C23" t="n">
         <v>11</v>
@@ -1307,7 +1301,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>30.0432623</v>
+        <v>30.44383913</v>
       </c>
       <c r="C24" t="n">
         <v>13</v>
@@ -1344,16 +1338,14 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33.28402367</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>14.757945929055612</t>
-        </is>
+        <v>34.15721565</v>
+      </c>
+      <c r="C25" t="n">
+        <v>14.72213558941654</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1383,7 +1375,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.38475666</v>
+        <v>30.0275482125</v>
       </c>
       <c r="C26" t="n">
         <v>11</v>
@@ -1420,7 +1412,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>28.04037814</v>
+        <v>28.0403781425</v>
       </c>
       <c r="C27" t="n">
         <v>17.52345399768839</v>
@@ -1457,16 +1449,14 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.13631634</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>38.34039043828304</t>
-        </is>
+        <v>30.020811655</v>
+      </c>
+      <c r="C28" t="n">
+        <v>13.42857142857143</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1496,7 +1486,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>32.04614645</v>
+        <v>33.2779202025</v>
       </c>
       <c r="C29" t="n">
         <v>13.71428571428571</v>
@@ -1533,16 +1523,14 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>33.11114958</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>17.722454918790866</t>
-        </is>
+        <v>34.128289475</v>
+      </c>
+      <c r="C30" t="n">
+        <v>17.59978257295947</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1572,7 +1560,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>30.38501561</v>
+        <v>30.9781477625</v>
       </c>
       <c r="C31" t="n">
         <v>13.85714285714286</v>
@@ -1609,7 +1597,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>30.48315806</v>
+        <v>30.8832495075</v>
       </c>
       <c r="C32" t="n">
         <v>12.16467367050707</v>
@@ -1646,7 +1634,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>32.56188509</v>
+        <v>32.605651065</v>
       </c>
       <c r="C33" t="n">
         <v>12</v>
@@ -1683,7 +1671,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.88509165</v>
+        <v>37.1109187425</v>
       </c>
       <c r="C34" t="n">
         <v>13.28571428571429</v>
@@ -1720,7 +1708,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>30.4833793</v>
+        <v>30.8462766725</v>
       </c>
       <c r="C35" t="n">
         <v>12.28571428571429</v>
@@ -1794,7 +1782,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.44636678</v>
+        <v>29.3512110725</v>
       </c>
       <c r="C37" t="n">
         <v>12.42857142857143</v>
@@ -1831,7 +1819,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>28.40787731</v>
+        <v>28.7389465575</v>
       </c>
       <c r="C38" t="n">
         <v>12.85714285714286</v>
@@ -1868,7 +1856,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>30.11099051</v>
+        <v>28.8067644675</v>
       </c>
       <c r="C39" t="n">
         <v>13.28571428571429</v>
@@ -1905,7 +1893,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.75206612</v>
+        <v>29.908172635</v>
       </c>
       <c r="C40" t="n">
         <v>13.28571428571429</v>
@@ -1942,7 +1930,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.68506006</v>
+        <v>31.49474171</v>
       </c>
       <c r="C41" t="n">
         <v>13.42857142857143</v>
@@ -1979,7 +1967,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>35.69303986</v>
+        <v>36.5667757275</v>
       </c>
       <c r="C42" t="n">
         <v>24.57142857142857</v>
@@ -2016,7 +2004,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>37.11354644</v>
+        <v>37.568712578</v>
       </c>
       <c r="C43" t="n">
         <v>24.56057285990538</v>
@@ -2053,7 +2041,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>30.11937557</v>
+        <v>30.60912151666667</v>
       </c>
       <c r="C44" t="n">
         <v>12.85714285714286</v>
@@ -2090,7 +2078,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>29.03178981</v>
+        <v>29.8483088975</v>
       </c>
       <c r="C45" t="n">
         <v>13.43376024586278</v>
@@ -2127,16 +2115,14 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.37239738</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>13.572883774605112</t>
-        </is>
+        <v>30.5807555025</v>
+      </c>
+      <c r="C46" t="n">
+        <v>13.31818637997602</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -2166,16 +2152,14 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>28.3446712</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>262.9731027053738</t>
-        </is>
+        <v>28.566113945</v>
+      </c>
+      <c r="C47" t="n">
+        <v>12.28571428571429</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -2205,7 +2189,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>28.90625</v>
+        <v>29.443359375</v>
       </c>
       <c r="C48" t="n">
         <v>13.14285714285714</v>
@@ -2242,7 +2226,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>33.87406376</v>
+        <v>34.44804095</v>
       </c>
       <c r="C49" t="n">
         <v>13.28571428571429</v>
@@ -2279,16 +2263,14 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>32.69054178</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>81.70478339169304</t>
-        </is>
+        <v>33.70064279</v>
+      </c>
+      <c r="C50" t="n">
+        <v>13.14285714285714</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -2318,16 +2300,14 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>34.92767916</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>12.220892036060096</t>
-        </is>
+        <v>35.3385930325</v>
+      </c>
+      <c r="C51" t="n">
+        <v>12.16635148523815</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2357,16 +2337,14 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>38.56749311</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>15.750248713616573</t>
-        </is>
+        <v>39.485766755</v>
+      </c>
+      <c r="C52" t="n">
+        <v>15.67702672509233</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2396,7 +2374,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>39.15984336</v>
+        <v>42.818717615</v>
       </c>
       <c r="C53" t="n">
         <v>12.28571428571429</v>
@@ -2435,14 +2413,12 @@
       <c r="B54" t="n">
         <v>37.20238095</v>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>21.894841177345945</t>
-        </is>
+      <c r="C54" t="n">
+        <v>21.2740341541446</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2472,7 +2448,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>28.90625</v>
+        <v>29.8828125</v>
       </c>
       <c r="C55" t="n">
         <v>13.14285714285714</v>
@@ -2509,7 +2485,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>35.00319922</v>
+        <v>35.7559561925</v>
       </c>
       <c r="C56" t="n">
         <v>12.28571428571429</v>
@@ -2546,16 +2522,14 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>32.05128205</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>12.585771294758533</t>
-        </is>
+        <v>32.975838265</v>
+      </c>
+      <c r="C57" t="n">
+        <v>12.77349123764897</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2585,7 +2559,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>34.0490306</v>
+        <v>34.4496074325</v>
       </c>
       <c r="C58" t="n">
         <v>11.42857142857143</v>
@@ -2622,16 +2596,14 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>31.22945431</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>2312.4009380790994</t>
-        </is>
+        <v>32.462195925</v>
+      </c>
+      <c r="C59" t="n">
+        <v>12.85714285714286</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2661,7 +2633,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>31.7329413</v>
+        <v>31.957043995</v>
       </c>
       <c r="C60" t="n">
         <v>13</v>
@@ -2698,16 +2670,14 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>38.94681326</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>13.255265366854104</t>
-        </is>
+        <v>39.0482372525</v>
+      </c>
+      <c r="C61" t="n">
+        <v>13.9495862063263</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -2737,7 +2707,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>35.5998576</v>
+        <v>36.0943000675</v>
       </c>
       <c r="C62" t="n">
         <v>13.42857142857143</v>
@@ -2774,7 +2744,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>32.421875</v>
+        <v>33.0078125</v>
       </c>
       <c r="C63" t="n">
         <v>13.85714285714286</v>
@@ -2811,16 +2781,14 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>36.28973726</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>14.220556580448436</t>
-        </is>
+        <v>36.56191029</v>
+      </c>
+      <c r="C64" t="n">
+        <v>14.15738453630527</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -2887,7 +2855,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>32.04614645</v>
+        <v>32.1462906575</v>
       </c>
       <c r="C66" t="n">
         <v>12.71428571428571</v>
@@ -2924,16 +2892,14 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>31.21748179</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>13.524768708919915</t>
-        </is>
+        <v>31.3735692</v>
+      </c>
+      <c r="C67" t="n">
+        <v>14.06291495606776</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -2963,7 +2929,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>32.04614645</v>
+        <v>32.7471559025</v>
       </c>
       <c r="C68" t="n">
         <v>13.62584809122248</v>
@@ -3037,7 +3003,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>33.7890625</v>
+        <v>34.228515625</v>
       </c>
       <c r="C70" t="n">
         <v>12.28571428571429</v>
@@ -3076,14 +3042,12 @@
       <c r="B71" t="n">
         <v>30.46875</v>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>13.007135067184056</t>
-        </is>
+      <c r="C71" t="n">
+        <v>12.28571428571429</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -3113,7 +3077,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>34.72088268</v>
+        <v>34.9950896875</v>
       </c>
       <c r="C72" t="n">
         <v>13.57142857142857</v>
@@ -3150,16 +3114,14 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>30.83289383</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>13.429728375731074</t>
-        </is>
+        <v>30.9343178225</v>
+      </c>
+      <c r="C73" t="n">
+        <v>13.42857142857143</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -3189,7 +3151,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>33.71488033</v>
+        <v>33.922996875</v>
       </c>
       <c r="C74" t="n">
         <v>13.57142857142857</v>
@@ -3300,16 +3262,14 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>35.15625</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>10.319947515533416</t>
-        </is>
+        <v>35.419921875</v>
+      </c>
+      <c r="C77" t="n">
+        <v>12</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -3339,7 +3299,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>34.06360931</v>
+        <v>34.49388648</v>
       </c>
       <c r="C78" t="n">
         <v>16.57142857142857</v>
@@ -3376,16 +3336,14 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>29.17488494</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>20.38333278400271</t>
-        </is>
+        <v>29.9453484525</v>
+      </c>
+      <c r="C79" t="n">
+        <v>20.20663810546316</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -3415,7 +3373,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>31.8877551</v>
+        <v>32.36016628666667</v>
       </c>
       <c r="C80" t="n">
         <v>12.42857142857143</v>
@@ -3452,7 +3410,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>30.44383913</v>
+        <v>32.04614645</v>
       </c>
       <c r="C81" t="n">
         <v>14.91933110698508</v>
@@ -3489,7 +3447,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>29.16933268</v>
+        <v>30.712484475</v>
       </c>
       <c r="C82" t="n">
         <v>11</v>
@@ -3526,7 +3484,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>31.57207142</v>
+        <v>32.41883195333333</v>
       </c>
       <c r="C83" t="n">
         <v>23</v>
@@ -3563,7 +3521,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>28.14760026</v>
+        <v>28.4455128225</v>
       </c>
       <c r="C84" t="n">
         <v>12</v>
@@ -3600,7 +3558,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>32.36854981</v>
+        <v>32.4061876625</v>
       </c>
       <c r="C85" t="n">
         <v>12</v>
@@ -3637,7 +3595,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>30.48315806</v>
+        <v>31.81679622</v>
       </c>
       <c r="C86" t="n">
         <v>23.14285714285714</v>
@@ -3674,7 +3632,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>29.74419988</v>
+        <v>30.0695270675</v>
       </c>
       <c r="C87" t="n">
         <v>14.53638181686548</v>
@@ -3711,7 +3669,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>30.48665738</v>
+        <v>30.110278895</v>
       </c>
       <c r="C88" t="n">
         <v>16.85714285714286</v>
@@ -3748,7 +3706,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>32.52244898</v>
+        <v>32.179591835</v>
       </c>
       <c r="C89" t="n">
         <v>11.14285714285714</v>
@@ -3785,7 +3743,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>29.05328798</v>
+        <v>29.266758785</v>
       </c>
       <c r="C90" t="n">
         <v>13.57142857142857</v>
@@ -3822,7 +3780,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>30.66129192</v>
+        <v>30.30057084</v>
       </c>
       <c r="C91" t="n">
         <v>11</v>
@@ -3859,7 +3817,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>30.4833793</v>
+        <v>30.5741036425</v>
       </c>
       <c r="C92" t="n">
         <v>12.14285714285714</v>
@@ -3896,7 +3854,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>29.75206612</v>
+        <v>30.9274563825</v>
       </c>
       <c r="C93" t="n">
         <v>12.42857142857143</v>
@@ -3933,7 +3891,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>29.75206612</v>
+        <v>29.8438934825</v>
       </c>
       <c r="C94" t="n">
         <v>12.85714285714286</v>
@@ -3970,7 +3928,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>39.14336257</v>
+        <v>39.8020249175</v>
       </c>
       <c r="C95" t="n">
         <v>12.85714285714286</v>
@@ -4007,7 +3965,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>27.90105194</v>
+        <v>27.7366863925</v>
       </c>
       <c r="C96" t="n">
         <v>13</v>
@@ -4044,7 +4002,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>37.26390533</v>
+        <v>36.8189349125</v>
       </c>
       <c r="C97" t="n">
         <v>14.25312251400135</v>
@@ -4081,7 +4039,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>30.0432623</v>
+        <v>30.5640121775</v>
       </c>
       <c r="C98" t="n">
         <v>13.14285714285714</v>
@@ -4118,7 +4076,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>41.1328125</v>
+        <v>42.001953125</v>
       </c>
       <c r="C99" t="n">
         <v>18.03274254843915</v>
@@ -4155,7 +4113,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>29.76086271</v>
+        <v>30.4523651125</v>
       </c>
       <c r="C100" t="n">
         <v>11.71428571428571</v>
@@ -4192,7 +4150,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>36.50871316</v>
+        <v>36.9086153025</v>
       </c>
       <c r="C101" t="n">
         <v>13.57142857142857</v>
@@ -4229,16 +4187,14 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>31.99217133</v>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>13.141238419751065</t>
-        </is>
+        <v>37.0732808925</v>
+      </c>
+      <c r="C102" t="n">
+        <v>13.12546469758565</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -4268,7 +4224,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>30.11621315</v>
+        <v>31.53344671</v>
       </c>
       <c r="C103" t="n">
         <v>13.71428571428571</v>
@@ -4305,16 +4261,14 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>28.98114344</v>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>12.258182633778082</t>
-        </is>
+        <v>30.7877601725</v>
+      </c>
+      <c r="C104" t="n">
+        <v>12.28571428571429</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -4344,16 +4298,14 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>33.40920489</v>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>16.67701604863831</t>
-        </is>
+        <v>32.63762972</v>
+      </c>
+      <c r="C105" t="n">
+        <v>13.14285714285714</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -4383,7 +4335,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>31.99217133</v>
+        <v>32.08626595</v>
       </c>
       <c r="C106" t="n">
         <v>12.85714285714286</v>
@@ -4420,16 +4372,14 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>32.83941526</v>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>9.862184673470123</t>
-        </is>
+        <v>33.10478427333334</v>
+      </c>
+      <c r="C107" t="n">
+        <v>13</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -4459,7 +4409,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>28.79295419</v>
+        <v>29.8844518025</v>
       </c>
       <c r="C108" t="n">
         <v>12.71428571428571</v>
@@ -4496,7 +4446,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>29.76086272</v>
+        <v>29.7608627175</v>
       </c>
       <c r="C109" t="n">
         <v>20.27397972921563</v>
@@ -4533,16 +4483,14 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>28.3446712</v>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>14.160718439114982</t>
-        </is>
+        <v>29.40759637</v>
+      </c>
+      <c r="C110" t="n">
+        <v>14.39338966962135</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -4572,16 +4520,14 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>35.32123736</v>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>37.5612325289019</t>
-        </is>
+        <v>35.832465795</v>
+      </c>
+      <c r="C111" t="n">
+        <v>12.85714285714286</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -4611,7 +4557,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>40.1384083</v>
+        <v>40.5709342575</v>
       </c>
       <c r="C112" t="n">
         <v>12</v>
@@ -4648,7 +4594,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>32.24206349</v>
+        <v>32.919589435</v>
       </c>
       <c r="C113" t="n">
         <v>24.28571428571428</v>
@@ -4685,7 +4631,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>30.11940192</v>
+        <v>30.47796622666667</v>
       </c>
       <c r="C114" t="n">
         <v>16</v>
@@ -4722,7 +4668,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>34.0490306</v>
+        <v>35.0376025975</v>
       </c>
       <c r="C115" t="n">
         <v>12.42857142857143</v>
@@ -4759,16 +4705,14 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>30.86303587</v>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>83.17745369708311</t>
-        </is>
+        <v>31.3335089775</v>
+      </c>
+      <c r="C116" t="n">
+        <v>12.28571428571429</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -4835,7 +4779,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>30.44383913</v>
+        <v>30.9445601675</v>
       </c>
       <c r="C118" t="n">
         <v>13.85714285714286</v>
@@ -4872,16 +4816,14 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>37.29068808</v>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>12.447638886257932</t>
-        </is>
+        <v>37.1114059275</v>
+      </c>
+      <c r="C119" t="n">
+        <v>13.57142857142857</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E119" t="n">
@@ -4911,16 +4853,14 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>29.89969136</v>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>17.951778187522557</t>
-        </is>
+        <v>30.44222608</v>
+      </c>
+      <c r="C120" t="n">
+        <v>17.15404671545902</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -4950,16 +4890,14 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>26.61934339</v>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>12.280494302951503</t>
-        </is>
+        <v>27.1015778725</v>
+      </c>
+      <c r="C121" t="n">
+        <v>12.42857142857143</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -4989,7 +4927,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>31.25</v>
+        <v>31.787109375</v>
       </c>
       <c r="C122" t="n">
         <v>16.24794508368717</v>
@@ -5026,7 +4964,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>29.13631634</v>
+        <v>29.39646202</v>
       </c>
       <c r="C123" t="n">
         <v>12.28571428571429</v>
@@ -5063,7 +5001,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>34.33922997</v>
+        <v>35.03295179</v>
       </c>
       <c r="C124" t="n">
         <v>13.14285714285714</v>
@@ -5102,14 +5040,12 @@
       <c r="B125" t="n">
         <v>31.25</v>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>1480.6180451117625</t>
-        </is>
+      <c r="C125" t="n">
+        <v>12.28571428571429</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E125" t="n">
@@ -5139,16 +5075,14 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>29.06574394</v>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>12.818501657201285</t>
-        </is>
+        <v>29.325259515</v>
+      </c>
+      <c r="C126" t="n">
+        <v>12.67168444910956</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -5178,16 +5112,14 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>30.11940191</v>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>17.16388835942526</t>
-        </is>
+        <v>30.59748765666667</v>
+      </c>
+      <c r="C127" t="n">
+        <v>17.17446911447457</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E127" t="n">
@@ -5217,7 +5149,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>30.46875</v>
+        <v>30.859375</v>
       </c>
       <c r="C128" t="n">
         <v>13.80615018900938</v>
@@ -5291,7 +5223,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>32.421875</v>
+        <v>33.251953125</v>
       </c>
       <c r="C130" t="n">
         <v>12.28571428571429</v>
@@ -5328,7 +5260,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>29.38475666</v>
+        <v>29.56841139</v>
       </c>
       <c r="C131" t="n">
         <v>12.42857142857143</v>
@@ -5365,7 +5297,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>33.00753084</v>
+        <v>32.747155905</v>
       </c>
       <c r="C132" t="n">
         <v>14.49736605081255</v>
@@ -5402,7 +5334,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>29.61580592</v>
+        <v>30.7314698375</v>
       </c>
       <c r="C133" t="n">
         <v>13.71428571428571</v>
@@ -5439,7 +5371,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>28.83379247</v>
+        <v>29.13988368666667</v>
       </c>
       <c r="C134" t="n">
         <v>12.85714285714286</v>
@@ -5476,7 +5408,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>30.46875</v>
+        <v>30.6640625</v>
       </c>
       <c r="C135" t="n">
         <v>12.14285714285714</v>
@@ -5513,7 +5445,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>29.82552801</v>
+        <v>29.76124885</v>
       </c>
       <c r="C136" t="n">
         <v>12.14285714285714</v>
@@ -5550,7 +5482,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>29.296875</v>
+        <v>29.39453125</v>
       </c>
       <c r="C137" t="n">
         <v>13.85714285714286</v>
@@ -5587,7 +5519,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>39.30211203</v>
+        <v>39.1184573</v>
       </c>
       <c r="C138" t="n">
         <v>13.75196343873467</v>
@@ -5624,7 +5556,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>31.24523701</v>
+        <v>31.05471727</v>
       </c>
       <c r="C139" t="n">
         <v>11.85714285714286</v>
@@ -5661,7 +5593,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>31.17913832</v>
+        <v>30.76577853333333</v>
       </c>
       <c r="C140" t="n">
         <v>14.01782898688995</v>
@@ -5698,7 +5630,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>29.41176471</v>
+        <v>30.588235295</v>
       </c>
       <c r="C141" t="n">
         <v>13.14285714285714</v>
@@ -5735,7 +5667,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>30.078125</v>
+        <v>31.15234375</v>
       </c>
       <c r="C142" t="n">
         <v>12.71428571428571</v>
@@ -5772,7 +5704,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>31.28831929</v>
+        <v>31.7827617575</v>
       </c>
       <c r="C143" t="n">
         <v>11.57142857142857</v>
@@ -5809,7 +5741,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>28.3446712</v>
+        <v>29.1418650775</v>
       </c>
       <c r="C144" t="n">
         <v>12.42857142857143</v>
@@ -5846,7 +5778,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>31.7535201</v>
+        <v>32.007548262</v>
       </c>
       <c r="C145" t="n">
         <v>19.77279415526643</v>
@@ -5883,7 +5815,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>29.13631634</v>
+        <v>31.17585848000001</v>
       </c>
       <c r="C146" t="n">
         <v>12.85714285714286</v>
@@ -5920,7 +5852,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>29.68943569</v>
+        <v>29.4224443575</v>
       </c>
       <c r="C147" t="n">
         <v>12.71428571428571</v>
@@ -5957,16 +5889,14 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>34.99747006</v>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>1.9681588373940748</t>
-        </is>
+        <v>35.2610052275</v>
+      </c>
+      <c r="C148" t="n">
+        <v>11.85714285714286</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -5996,7 +5926,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>34.51676529</v>
+        <v>34.3113083525</v>
       </c>
       <c r="C149" t="n">
         <v>12.14285714285714</v>
@@ -6033,7 +5963,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>29.64268547</v>
+        <v>29.842973885</v>
       </c>
       <c r="C150" t="n">
         <v>11.85714285714286</v>
@@ -6070,16 +6000,14 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>30.47052154</v>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>103.03138358182736</t>
-        </is>
+        <v>30.82482993</v>
+      </c>
+      <c r="C151" t="n">
+        <v>12</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -6109,7 +6037,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>34.15977961</v>
+        <v>34.08631772</v>
       </c>
       <c r="C152" t="n">
         <v>12.28571428571429</v>
@@ -6146,7 +6074,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>35.62901745</v>
+        <v>36.7309458225</v>
       </c>
       <c r="C153" t="n">
         <v>12.28571428571429</v>
@@ -6183,7 +6111,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>38.4083045</v>
+        <v>39.01384083</v>
       </c>
       <c r="C154" t="n">
         <v>23</v>
@@ -6259,14 +6187,12 @@
       <c r="B156" t="n">
         <v>36.36363636</v>
       </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>16.214201313584578</t>
-        </is>
+      <c r="C156" t="n">
+        <v>12.57142857142857</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E156" t="n">
@@ -6296,16 +6222,14 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>31.22130395</v>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>8.434797313921534</t>
-        </is>
+        <v>31.496786045</v>
+      </c>
+      <c r="C157" t="n">
+        <v>12.14285714285714</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E157" t="n">
@@ -6335,16 +6259,14 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>32</v>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>23.42711377141214</t>
-        </is>
+        <v>35.91836734499999</v>
+      </c>
+      <c r="C158" t="n">
+        <v>23.35967965548888</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -6374,16 +6296,14 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>33.203125</v>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>18.336025525704336</t>
-        </is>
+        <v>33.33333333333334</v>
+      </c>
+      <c r="C159" t="n">
+        <v>18.41872159896551</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E159" t="n">
@@ -6413,7 +6333,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>32.87197232</v>
+        <v>33.39100346</v>
       </c>
       <c r="C160" t="n">
         <v>22.85714285714286</v>
@@ -6450,7 +6370,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>28.07108864</v>
+        <v>28.3499405125</v>
       </c>
       <c r="C161" t="n">
         <v>13</v>
@@ -6487,16 +6407,14 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>30.3758766544418</v>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>755.9970979167441</t>
-        </is>
+        <v>30.70182186078615</v>
+      </c>
+      <c r="C162" t="n">
+        <v>11.42857142857143</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E162" t="n">
@@ -6526,16 +6444,14 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>31.3209292888397</v>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>15781.869116411877</t>
-        </is>
+        <v>31.63741748864478</v>
+      </c>
+      <c r="C163" t="n">
+        <v>12.57142857142857</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E163" t="n">
@@ -6565,16 +6481,14 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>29.4422328204865</v>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>92.69196651229173</t>
-        </is>
+        <v>29.87908598515877</v>
+      </c>
+      <c r="C164" t="n">
+        <v>11.71428571428571</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -6604,16 +6518,14 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>32.5719340208979</v>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>2324.2395611404845</t>
-        </is>
+        <v>32.80506292346082</v>
+      </c>
+      <c r="C165" t="n">
+        <v>12.28571428571429</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E165" t="n">
@@ -6643,16 +6555,14 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>32.9443622062428</v>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>35.033559882100334</t>
-        </is>
+        <v>33.3308425552603</v>
+      </c>
+      <c r="C166" t="n">
+        <v>13.57142857142857</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E166" t="n">
@@ -6682,16 +6592,14 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>33.1012728287967</v>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>12371.955421931232</t>
-        </is>
+        <v>33.37349395704818</v>
+      </c>
+      <c r="C167" t="n">
+        <v>12.42857142857143</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E167" t="n">
@@ -6721,16 +6629,14 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>29.2349519135559</v>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>72.41417746085692</t>
-        </is>
+        <v>29.71153015538003</v>
+      </c>
+      <c r="C168" t="n">
+        <v>11.14285714285714</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E168" t="n">
@@ -6760,16 +6666,14 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>31.7136830091578</v>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>148.62911741411713</t>
-        </is>
+        <v>32.03301294014275</v>
+      </c>
+      <c r="C169" t="n">
+        <v>13</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E169" t="n">
@@ -6799,16 +6703,14 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>29.8050560975993</v>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>12244.258394817327</t>
-        </is>
+        <v>30.09542061367328</v>
+      </c>
+      <c r="C170" t="n">
+        <v>11.57142857142857</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E170" t="n">
@@ -6838,16 +6740,14 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>31.9130114049191</v>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>66.4196994858359</t>
-        </is>
+        <v>32.22761533067208</v>
+      </c>
+      <c r="C171" t="n">
+        <v>11</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E171" t="n">
@@ -6877,16 +6777,14 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>33.9504634756979</v>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>18.850738725706773</t>
-        </is>
+        <v>34.44083560298441</v>
+      </c>
+      <c r="C172" t="n">
+        <v>11.57142857142857</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E172" t="n">
@@ -6916,16 +6814,14 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>30.3208818878574</v>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>3.6601112555529287</t>
-        </is>
+        <v>30.77928335660427</v>
+      </c>
+      <c r="C173" t="n">
+        <v>12</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E173" t="n">
@@ -6955,16 +6851,14 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>33.1447392272428</v>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>38.27617355916617</t>
-        </is>
+        <v>33.6971973919581</v>
+      </c>
+      <c r="C174" t="n">
+        <v>11.85714285714286</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E174" t="n">
@@ -6994,16 +6888,14 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>30.2523632192256</v>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>7.258490206484273</t>
-        </is>
+        <v>30.55928956336613</v>
+      </c>
+      <c r="C175" t="n">
+        <v>12</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E175" t="n">
@@ -7033,16 +6925,14 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>30.9542707710965</v>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>12598.805277629057</t>
-        </is>
+        <v>31.22052315640403</v>
+      </c>
+      <c r="C176" t="n">
+        <v>12.71428571428571</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E176" t="n">
@@ -7072,16 +6962,14 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>32.719395379731</v>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>193.6976248628262</t>
-        </is>
+        <v>33.01311092093017</v>
+      </c>
+      <c r="C177" t="n">
+        <v>12.57142857142857</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E177" t="n">
@@ -7111,16 +6999,14 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>30.2769532064808</v>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>16.8381942141299</t>
-        </is>
+        <v>30.8282503304982</v>
+      </c>
+      <c r="C178" t="n">
+        <v>11.28571428571429</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E178" t="n">
@@ -7150,16 +7036,14 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>28.5282915535451</v>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>34.91604757588169</t>
-        </is>
+        <v>28.96566290009367</v>
+      </c>
+      <c r="C179" t="n">
+        <v>12</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E179" t="n">
@@ -7189,16 +7073,14 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>34.1412917452927</v>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>34.064234985188044</t>
-        </is>
+        <v>34.6061223491483</v>
+      </c>
+      <c r="C180" t="n">
+        <v>13.28571428571429</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E180" t="n">
@@ -7228,16 +7110,14 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>32.4255843278135</v>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>79650129.32121204</t>
-        </is>
+        <v>32.6580650566962</v>
+      </c>
+      <c r="C181" t="n">
+        <v>13.42857142857143</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E181" t="n">
@@ -7267,16 +7147,14 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>30.6293529774186</v>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>9.53957712918897</t>
-        </is>
+        <v>31.04248609504753</v>
+      </c>
+      <c r="C182" t="n">
+        <v>12.57142857142857</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E182" t="n">
@@ -7306,16 +7184,14 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>27.8813428504966</v>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>-2.4142355198913212</t>
-        </is>
+        <v>28.22287134607395</v>
+      </c>
+      <c r="C183" t="n">
+        <v>12.71428571428571</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E183" t="n">
@@ -7345,16 +7221,14 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>35.5478156953067</v>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>5090096484.289187</t>
-        </is>
+        <v>35.81270986576978</v>
+      </c>
+      <c r="C184" t="n">
+        <v>12.71428571428571</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E184" t="n">
@@ -7384,16 +7258,14 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>38.5381074441282</v>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>936.8002488677008</t>
-        </is>
+        <v>38.75735012338922</v>
+      </c>
+      <c r="C185" t="n">
+        <v>11.28571428571429</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E185" t="n">
@@ -7423,16 +7295,14 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>32.4057579571123</v>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>110.26260739061937</t>
-        </is>
+        <v>32.78819553165665</v>
+      </c>
+      <c r="C186" t="n">
+        <v>11.42857142857143</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E186" t="n">
@@ -7462,16 +7332,14 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>33.3864536680302</v>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>334.21405922346275</t>
-        </is>
+        <v>33.82293962599595</v>
+      </c>
+      <c r="C187" t="n">
+        <v>11.28571428571429</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E187" t="n">
@@ -7501,16 +7369,14 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>33.8632982242097</v>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>12.745096666182095</t>
-        </is>
+        <v>34.2702066726679</v>
+      </c>
+      <c r="C188" t="n">
+        <v>12.71428571428571</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E188" t="n">
@@ -7540,16 +7406,14 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>30.1851951136848</v>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>382.46586017414563</t>
-        </is>
+        <v>30.5427335078147</v>
+      </c>
+      <c r="C189" t="n">
+        <v>13.28571428571429</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E189" t="n">
@@ -7579,16 +7443,14 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>31.0963695756299</v>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>16.782925622885628</t>
-        </is>
+        <v>31.36491956828325</v>
+      </c>
+      <c r="C190" t="n">
+        <v>12</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E190" t="n">
@@ -7618,16 +7480,14 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>28.1934816309429</v>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>679.5074669562291</t>
-        </is>
+        <v>28.5481844145503</v>
+      </c>
+      <c r="C191" t="n">
+        <v>11.42857142857143</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E191" t="n">
@@ -7657,16 +7517,14 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>30.5560048250251</v>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>723.8688749942401</t>
-        </is>
+        <v>30.81951861090335</v>
+      </c>
+      <c r="C192" t="n">
+        <v>12.57142857142857</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E192" t="n">
@@ -7696,16 +7554,14 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>33.1123119118124</v>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>71.84306961039705</t>
-        </is>
+        <v>33.4433467487109</v>
+      </c>
+      <c r="C193" t="n">
+        <v>13.57142857142857</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E193" t="n">
@@ -7735,16 +7591,14 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>31.3448155261195</v>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>17.528774326872693</t>
-        </is>
+        <v>31.66869083811925</v>
+      </c>
+      <c r="C194" t="n">
+        <v>13.85714285714286</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E194" t="n">
@@ -7774,16 +7628,14 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>31.2608484988835</v>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>9.273738676381841</t>
-        </is>
+        <v>31.81695834927893</v>
+      </c>
+      <c r="C195" t="n">
+        <v>11</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E195" t="n">
@@ -7813,16 +7665,14 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>31.5591091794294</v>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>90.35203727625426</t>
-        </is>
+        <v>31.8235897491406</v>
+      </c>
+      <c r="C196" t="n">
+        <v>11.85714285714286</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E196" t="n">
@@ -7852,16 +7702,14 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>28.1712732058412</v>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>179.4267390234249</t>
-        </is>
+        <v>28.53587956692455</v>
+      </c>
+      <c r="C197" t="n">
+        <v>11.57142857142857</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E197" t="n">
@@ -7891,16 +7739,14 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>33.5166225167003</v>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>11.550699410417602</t>
-        </is>
+        <v>33.8246107522913</v>
+      </c>
+      <c r="C198" t="n">
+        <v>11.57142857142857</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E198" t="n">
@@ -7930,16 +7776,14 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>28.9707452961726</v>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>-361.0441747355254</t>
-        </is>
+        <v>29.23817995100767</v>
+      </c>
+      <c r="C199" t="n">
+        <v>11.71428571428571</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E199" t="n">
@@ -7969,16 +7813,14 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>31.4499376707056</v>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>3028.9200488368747</t>
-        </is>
+        <v>31.7422635895135</v>
+      </c>
+      <c r="C200" t="n">
+        <v>11</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E200" t="n">
@@ -8008,16 +7850,14 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>30.6461845488005</v>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>10.185343438284095</t>
-        </is>
+        <v>30.98296171953625</v>
+      </c>
+      <c r="C201" t="n">
+        <v>12.57142857142857</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E201" t="n">
@@ -8047,16 +7887,14 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>31.4024214384364</v>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>182.5072377483723</t>
-        </is>
+        <v>31.86224153879197</v>
+      </c>
+      <c r="C202" t="n">
+        <v>12.57142857142857</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E202" t="n">
@@ -8086,16 +7924,14 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>34.5009831046413</v>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>12.760483433114862</t>
-        </is>
+        <v>34.99507837242727</v>
+      </c>
+      <c r="C203" t="n">
+        <v>13.28571428571429</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E203" t="n">
@@ -8125,16 +7961,14 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>30.5986033786627</v>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>7.286154887621134</t>
-        </is>
+        <v>30.97982984406718</v>
+      </c>
+      <c r="C204" t="n">
+        <v>13</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E204" t="n">
@@ -8164,16 +7998,14 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>30.1460126719457</v>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>217.2983826841768</t>
-        </is>
+        <v>30.60883585162453</v>
+      </c>
+      <c r="C205" t="n">
+        <v>12.14285714285714</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E205" t="n">
@@ -8203,16 +8035,14 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>28.737436262759</v>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>238.6808440395908</t>
-        </is>
+        <v>29.0155575048283</v>
+      </c>
+      <c r="C206" t="n">
+        <v>12</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E206" t="n">
@@ -8242,16 +8072,14 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>30.282667953009</v>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>80.7242453821211</t>
-        </is>
+        <v>30.6553293030762</v>
+      </c>
+      <c r="C207" t="n">
+        <v>11.14285714285714</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E207" t="n">
@@ -8281,16 +8109,14 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>29.4856532028141</v>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>7.806649995825104</t>
-        </is>
+        <v>29.91947472878412</v>
+      </c>
+      <c r="C208" t="n">
+        <v>11</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E208" t="n">
@@ -8320,16 +8146,14 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>32.7160219738708</v>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>131563.7906713068</t>
-        </is>
+        <v>32.94202115906528</v>
+      </c>
+      <c r="C209" t="n">
+        <v>13.14285714285714</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E209" t="n">
@@ -8359,16 +8183,14 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>29.8911616220665</v>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>6970.533857993307</t>
-        </is>
+        <v>30.1684934649618</v>
+      </c>
+      <c r="C210" t="n">
+        <v>11.85714285714286</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E210" t="n">
@@ -8398,16 +8220,14 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>32.3448873999274</v>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>2904.373608026989</t>
-        </is>
+        <v>32.75220013305803</v>
+      </c>
+      <c r="C211" t="n">
+        <v>12.57142857142857</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E211" t="n">
@@ -8437,16 +8257,14 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>34.5703607329656</v>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>15.192885742208517</t>
-        </is>
+        <v>34.81244901675007</v>
+      </c>
+      <c r="C212" t="n">
+        <v>15.17725699728117</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E212" t="n">
@@ -8476,16 +8294,14 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>29.0105368357815</v>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>1742.449770276767</t>
-        </is>
+        <v>29.25652229807423</v>
+      </c>
+      <c r="C213" t="n">
+        <v>11.28571428571429</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E213" t="n">
@@ -8515,16 +8331,14 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>30.0931266499348</v>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>4483.003278711921</t>
-        </is>
+        <v>30.42031289445065</v>
+      </c>
+      <c r="C214" t="n">
+        <v>12.57142857142857</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E214" t="n">
@@ -8554,16 +8368,14 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>33.8308993299421</v>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>51043.975227340765</t>
-        </is>
+        <v>34.0254513521401</v>
+      </c>
+      <c r="C215" t="n">
+        <v>12.14285714285714</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E215" t="n">
@@ -8593,16 +8405,14 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>33.3757567660939</v>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>33.69270065091065</t>
-        </is>
+        <v>33.77061873125362</v>
+      </c>
+      <c r="C216" t="n">
+        <v>12.85714285714286</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E216" t="n">
@@ -8632,16 +8442,14 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>35.568089454265</v>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>4.797846309087538</t>
-        </is>
+        <v>36.0834814332741</v>
+      </c>
+      <c r="C217" t="n">
+        <v>13.14285714285714</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E217" t="n">
@@ -8671,16 +8479,14 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>31.7837952858894</v>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>61.910393963252645</t>
-        </is>
+        <v>32.22249648219911</v>
+      </c>
+      <c r="C218" t="n">
+        <v>12.28571428571429</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E218" t="n">
@@ -8710,16 +8516,14 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>28.6124502205125</v>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>22.610953054422318</t>
-        </is>
+        <v>29.07858710560638</v>
+      </c>
+      <c r="C219" t="n">
+        <v>13.71428571428571</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E219" t="n">
@@ -8749,16 +8553,14 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>30.1808820146395</v>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>284.4098897541654</t>
-        </is>
+        <v>30.42855977488498</v>
+      </c>
+      <c r="C220" t="n">
+        <v>13.85714285714286</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E220" t="n">
@@ -8788,16 +8590,14 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>32.5106268967154</v>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>12.336600485467146</t>
-        </is>
+        <v>32.9218985977976</v>
+      </c>
+      <c r="C221" t="n">
+        <v>12.28571428571429</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E221" t="n">
@@ -8827,16 +8627,14 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>35.2854862281454</v>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>49.66735800216607</t>
-        </is>
+        <v>35.7475162285205</v>
+      </c>
+      <c r="C222" t="n">
+        <v>12.57142857142857</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E222" t="n">
@@ -8866,16 +8664,14 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>32.017138236274</v>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>2.1624000187479666</t>
-        </is>
+        <v>32.40983215385928</v>
+      </c>
+      <c r="C223" t="n">
+        <v>13.71428571428571</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E223" t="n">
@@ -8905,16 +8701,14 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>33.9760383005359</v>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>12.716116995886784</t>
-        </is>
+        <v>34.26377511249652</v>
+      </c>
+      <c r="C224" t="n">
+        <v>12.14285714285714</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E224" t="n">
@@ -8944,16 +8738,14 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>33.2112588359789</v>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>6417590.272825614</t>
-        </is>
+        <v>33.49051024941436</v>
+      </c>
+      <c r="C225" t="n">
+        <v>13.57142857142857</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E225" t="n">
@@ -8983,16 +8775,14 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>29.565669647543</v>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>48.54595634908746</t>
-        </is>
+        <v>29.89106411746565</v>
+      </c>
+      <c r="C226" t="n">
+        <v>13.57142857142857</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E226" t="n">
@@ -9022,16 +8812,14 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>31.6317360439571</v>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>173.08254648588064</t>
-        </is>
+        <v>32.01922129323395</v>
+      </c>
+      <c r="C227" t="n">
+        <v>12.71428571428571</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E227" t="n">
@@ -9061,16 +8849,14 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>34.3011931037096</v>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>11.894158542276985</t>
-        </is>
+        <v>34.84921091171771</v>
+      </c>
+      <c r="C228" t="n">
+        <v>11.14285714285714</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E228" t="n">
@@ -9100,16 +8886,14 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>33.517889736661</v>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>29.673329514023067</t>
-        </is>
+        <v>33.8466056317916</v>
+      </c>
+      <c r="C229" t="n">
+        <v>13.14285714285714</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E229" t="n">
@@ -9139,16 +8923,14 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>32.7639415172495</v>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>2758.499511250085</t>
-        </is>
+        <v>33.03719693831385</v>
+      </c>
+      <c r="C230" t="n">
+        <v>12.14285714285714</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E230" t="n">
@@ -9178,16 +8960,14 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>32.3650783411902</v>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>54.477058938481676</t>
-        </is>
+        <v>32.74618575813837</v>
+      </c>
+      <c r="C231" t="n">
+        <v>13</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E231" t="n">
@@ -9217,16 +8997,14 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>30.7633136737466</v>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>-266.7470548330914</t>
-        </is>
+        <v>31.08195899619288</v>
+      </c>
+      <c r="C232" t="n">
+        <v>12.71428571428571</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E232" t="n">
@@ -9256,16 +9034,14 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>29.090374615573</v>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>463.49083466600405</t>
-        </is>
+        <v>29.536470206156</v>
+      </c>
+      <c r="C233" t="n">
+        <v>13.42857142857143</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E233" t="n">
@@ -9295,16 +9071,14 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>34.4843990684449</v>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>177981.72045513112</t>
-        </is>
+        <v>34.85225186323137</v>
+      </c>
+      <c r="C234" t="n">
+        <v>13.71428571428571</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E234" t="n">
@@ -9334,16 +9108,14 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>29.1237418193401</v>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>277908669.9097464</t>
-        </is>
+        <v>29.40122552882853</v>
+      </c>
+      <c r="C235" t="n">
+        <v>11.14285714285714</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E235" t="n">
@@ -9373,16 +9145,14 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>29.8110043544814</v>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>8.839471454276225</t>
-        </is>
+        <v>30.15820637238595</v>
+      </c>
+      <c r="C236" t="n">
+        <v>13.28571428571429</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E236" t="n">
@@ -9412,16 +9182,14 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>33.0200653600827</v>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>3963.9565697488038</t>
-        </is>
+        <v>33.3902527333911</v>
+      </c>
+      <c r="C237" t="n">
+        <v>11.71428571428571</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E237" t="n">
@@ -9451,16 +9219,14 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>29.0378761457738</v>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>295.02418429284353</t>
-        </is>
+        <v>29.5132861597504</v>
+      </c>
+      <c r="C238" t="n">
+        <v>12.71428571428571</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E238" t="n">
@@ -9490,16 +9256,14 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>30.7588525202617</v>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>11.946237830919609</t>
-        </is>
+        <v>31.1513349447245</v>
+      </c>
+      <c r="C239" t="n">
+        <v>12.57142857142857</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E239" t="n">
@@ -9529,16 +9293,14 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>29.4190260663914</v>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>43.14204412410558</t>
-        </is>
+        <v>29.8600085763782</v>
+      </c>
+      <c r="C240" t="n">
+        <v>13.28571428571429</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E240" t="n">
@@ -9568,16 +9330,14 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>33.2122104699348</v>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>10377.890872734863</t>
-        </is>
+        <v>33.52756727955418</v>
+      </c>
+      <c r="C241" t="n">
+        <v>12.42857142857143</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E241" t="n">
@@ -9607,16 +9367,14 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>32.311708576773</v>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>574.396192679994</t>
-        </is>
+        <v>32.69345321727337</v>
+      </c>
+      <c r="C242" t="n">
+        <v>12.28571428571429</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E242" t="n">
@@ -9646,16 +9404,14 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>32.5941312641211</v>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>12.03478293728632</t>
-        </is>
+        <v>32.9887484423004</v>
+      </c>
+      <c r="C243" t="n">
+        <v>13.28571428571429</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E243" t="n">
@@ -9685,16 +9441,14 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>32.5579873449767</v>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>19.79402396757343</t>
-        </is>
+        <v>33.07905915660985</v>
+      </c>
+      <c r="C244" t="n">
+        <v>13.14285714285714</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E244" t="n">
@@ -9724,16 +9478,14 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>32.9258922118661</v>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>12.255947222654521</t>
-        </is>
+        <v>33.4968130668918</v>
+      </c>
+      <c r="C245" t="n">
+        <v>11.85714285714286</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E245" t="n">
@@ -9763,16 +9515,14 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>33.0500666835481</v>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>148.24202605107521</t>
-        </is>
+        <v>33.39160560602645</v>
+      </c>
+      <c r="C246" t="n">
+        <v>13.42857142857143</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E246" t="n">
@@ -9802,16 +9552,14 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>28.0649314858714</v>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>475.97355356504517</t>
-        </is>
+        <v>28.4833414405258</v>
+      </c>
+      <c r="C247" t="n">
+        <v>13</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E247" t="n">
@@ -9841,16 +9589,14 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>31.5632692602157</v>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>141198.37397536112</t>
-        </is>
+        <v>31.9591974172221</v>
+      </c>
+      <c r="C248" t="n">
+        <v>13.28571428571429</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E248" t="n">
@@ -9880,16 +9626,14 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>32.1364343541481</v>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>155813947213604.8</t>
-        </is>
+        <v>32.3647966184369</v>
+      </c>
+      <c r="C249" t="n">
+        <v>12.57142857142857</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E249" t="n">
@@ -9919,16 +9663,14 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>33.341955021822</v>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>10.158095075285472</t>
-        </is>
+        <v>33.66749516149068</v>
+      </c>
+      <c r="C250" t="n">
+        <v>13.42857142857143</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E250" t="n">
@@ -9958,16 +9700,14 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>29.7475745109286</v>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>567.8183800909263</t>
-        </is>
+        <v>29.97190978078825</v>
+      </c>
+      <c r="C251" t="n">
+        <v>11.57142857142857</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E251" t="n">
@@ -9997,16 +9737,14 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>30.5863183332595</v>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>5.955991427401532</t>
-        </is>
+        <v>30.89997980035722</v>
+      </c>
+      <c r="C252" t="n">
+        <v>11.71428571428571</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E252" t="n">
@@ -10036,16 +9774,14 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>29.9960650360448</v>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>18.468104703423073</t>
-        </is>
+        <v>30.38843951227902</v>
+      </c>
+      <c r="C253" t="n">
+        <v>13.71428571428571</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E253" t="n">
@@ -10075,16 +9811,14 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>33.7864936354758</v>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>276.85895884183526</t>
-        </is>
+        <v>34.16401604452477</v>
+      </c>
+      <c r="C254" t="n">
+        <v>12.14285714285714</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E254" t="n">
@@ -10114,16 +9848,14 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>34.215671325648</v>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>2507089.426466314</t>
-        </is>
+        <v>34.57002784022523</v>
+      </c>
+      <c r="C255" t="n">
+        <v>12.57142857142857</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E255" t="n">
@@ -10153,16 +9885,14 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>33.4137005937043</v>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>84.88487162702118</t>
-        </is>
+        <v>33.78019391876778</v>
+      </c>
+      <c r="C256" t="n">
+        <v>12.28571428571429</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E256" t="n">
@@ -10192,16 +9922,14 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>29.3466867640343</v>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>53.67879760828856</t>
-        </is>
+        <v>29.64373800767205</v>
+      </c>
+      <c r="C257" t="n">
+        <v>12.57142857142857</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E257" t="n">
@@ -10231,16 +9959,14 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>32.4710620375276</v>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>7.4173160980734725</t>
-        </is>
+        <v>32.89731359069417</v>
+      </c>
+      <c r="C258" t="n">
+        <v>11.71428571428571</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E258" t="n">
@@ -10270,16 +9996,14 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>33.7196780111091</v>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>9.218536445162245</t>
-        </is>
+        <v>34.20605381414505</v>
+      </c>
+      <c r="C259" t="n">
+        <v>11.71428571428571</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E259" t="n">
@@ -10309,16 +10033,14 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>32.1350948388576</v>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>86.16833959069666</t>
-        </is>
+        <v>32.4592742064293</v>
+      </c>
+      <c r="C260" t="n">
+        <v>13.71428571428571</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E260" t="n">
@@ -10348,16 +10070,14 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>30.7031331865731</v>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>985.3423195623408</t>
-        </is>
+        <v>31.05220978441215</v>
+      </c>
+      <c r="C261" t="n">
+        <v>11.57142857142857</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>PCHIP插值</t>
+          <t>线性插值</t>
         </is>
       </c>
       <c r="E261" t="n">
